--- a/data/trans_dic/P25A$rendimiento-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,82</t>
+          <t>0,0; 6,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,12</t>
+          <t>0,0; 5,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 16,63</t>
+          <t>2,94; 15,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 23,77</t>
+          <t>2,58; 24,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 16,33</t>
+          <t>1,95; 17,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 15,24</t>
+          <t>1,79; 15,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,17</t>
+          <t>2,05; 9,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 7,73</t>
+          <t>1,24; 7,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 12,62</t>
+          <t>3,5; 12,27</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,4</t>
+          <t>0,0; 6,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 13,15</t>
+          <t>2,32; 13,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,54</t>
+          <t>1,31; 11,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,35</t>
+          <t>0,0; 10,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,15</t>
+          <t>0,0; 8,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,57</t>
+          <t>0,0; 7,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>0,0; 5,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,73</t>
+          <t>2,04; 9,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,02</t>
+          <t>0,76; 6,92</t>
         </is>
       </c>
     </row>
@@ -905,22 +906,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 10,47</t>
+          <t>1,88; 10,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 9,31</t>
+          <t>1,85; 9,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 11,31</t>
+          <t>1,91; 11,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 32,84</t>
+          <t>3,56; 32,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 13,01</t>
+          <t>3,3; 11,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,61</t>
+          <t>1,52; 7,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 10,22</t>
+          <t>1,65; 10,43</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,71</t>
+          <t>1,41; 5,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,35</t>
+          <t>1,58; 5,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,06</t>
+          <t>2,06; 7,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 12,29</t>
+          <t>1,47; 12,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,27</t>
+          <t>0,86; 9,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 12,34</t>
+          <t>2,32; 12,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,6</t>
+          <t>1,8; 5,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,62</t>
+          <t>1,69; 5,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,51</t>
+          <t>2,91; 7,87</t>
         </is>
       </c>
     </row>
@@ -1125,17 +1126,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,6</t>
+          <t>0,0; 10,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,78</t>
+          <t>0,8; 8,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 11,1</t>
+          <t>1,68; 10,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1145,27 +1146,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,67</t>
+          <t>0,0; 11,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,56</t>
+          <t>1,32; 12,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,83</t>
+          <t>0,0; 6,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 7,62</t>
+          <t>1,3; 7,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,29</t>
+          <t>2,69; 9,15</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,16</t>
+          <t>0,0; 68,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,07</t>
+          <t>0,0; 65,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,76</t>
+          <t>0,0; 11,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,08</t>
+          <t>0,0; 7,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,55</t>
+          <t>0,0; 19,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 17,37</t>
+          <t>1,66; 14,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,59</t>
+          <t>0,0; 10,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,01</t>
+          <t>0,0; 17,85</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,98</t>
+          <t>1,97; 4,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,33</t>
+          <t>2,44; 5,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,01</t>
+          <t>3,62; 7,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,19</t>
+          <t>2,93; 8,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,85</t>
+          <t>1,55; 5,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,64</t>
+          <t>2,93; 7,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,1</t>
+          <t>2,6; 4,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,96</t>
+          <t>2,58; 4,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,67</t>
+          <t>3,73; 6,62</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, la disminución del rendimiento</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1886</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4003</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5889</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5962</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11032</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6449</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6143</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2747; 14378</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>981; 9170</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1008; 8877</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1099; 9355</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2742; 12665</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2027; 12200</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5413; 18985</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6039</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1793</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7003</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5483</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2089; 12266</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>955; 8202</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4130</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4333</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5183</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6108</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2943; 13258</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1058; 9668</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5726</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7047</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5021</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3027</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8754</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7047</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2011; 11645</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2990; 14779</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1879; 11323</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>868; 7892</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1779</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4328; 15230</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2998; 15208</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1844; 11623</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>8537</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9889</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10122</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5177</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11454</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13835</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15299</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3850; 15764</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5042; 17371</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4691; 17678</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>931; 7964</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>978; 10998</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2014; 11082</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6033; 19276</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7286; 22670</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9141; 24735</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1856</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5099</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2425</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3819</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1856</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6984</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8919</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6357</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1011; 10786</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1808; 11696</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1882</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8209</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>929; 8766</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6534</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2564; 14662</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4777; 16276</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2881</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3795</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3970</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1703</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5837</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4527</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6871</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>907; 7658</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6941</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7443</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19983</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>30416</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>30384</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12643</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16107</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>32626</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>42803</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>46491</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>12303; 30150</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>19923; 42768</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>21916; 44924</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>7348; 21121</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5976; 20811</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9789; 25882</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>22701; 43528</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31031; 56901</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>35104; 62235</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P25A$rendimiento-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
